--- a/HT-6/Optica BAC-11-Catálogo de atributos y relaciones.xlsx
+++ b/HT-6/Optica BAC-11-Catálogo de atributos y relaciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chech\Documents\GitHub\p3\arquiemp\HT-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612DF572-CCDC-5E40-81FB-5D088B55A137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960CBFD8-AED3-4DD9-996B-2415D487C364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-11" sheetId="1" r:id="rId1"/>
@@ -684,35 +684,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
   <dimension ref="B2:D52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="J8" sqref="J7:J8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -732,14 +732,14 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="10"/>
       <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:4" ht="28" x14ac:dyDescent="0.3">
       <c r="B9" s="10"/>
       <c r="C9" s="5" t="s">
         <v>9</v>
@@ -748,7 +748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:4" ht="28" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="5" t="s">
         <v>11</v>
@@ -757,7 +757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="10"/>
       <c r="C11" s="5" t="s">
         <v>12</v>
@@ -766,7 +766,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
       <c r="C12" s="5" t="s">
         <v>60</v>
@@ -775,7 +775,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="11"/>
       <c r="C13" s="5" t="s">
         <v>61</v>
@@ -784,7 +784,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
         <v>15</v>
       </c>
@@ -793,14 +793,14 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="10"/>
       <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="2:4" ht="45" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:4" ht="28" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
       <c r="C16" s="5" t="s">
         <v>18</v>
@@ -809,7 +809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" ht="28" x14ac:dyDescent="0.3">
       <c r="B17" s="10"/>
       <c r="C17" s="5" t="s">
         <v>17</v>
@@ -818,7 +818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
       <c r="C18" s="5" t="s">
         <v>11</v>
@@ -827,7 +827,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="s">
         <v>11</v>
       </c>
@@ -836,21 +836,21 @@
       </c>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
       <c r="C20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
       <c r="C21" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" s="5" t="s">
         <v>23</v>
@@ -859,7 +859,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:4" ht="28" x14ac:dyDescent="0.3">
       <c r="B23" s="11"/>
       <c r="C23" s="5" t="s">
         <v>17</v>
@@ -868,7 +868,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:4" ht="28" x14ac:dyDescent="0.3">
       <c r="B24" s="9" t="s">
         <v>17</v>
       </c>
@@ -879,7 +879,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:4" ht="28" x14ac:dyDescent="0.3">
       <c r="B25" s="11"/>
       <c r="C25" s="5" t="s">
         <v>27</v>
@@ -888,7 +888,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
         <v>60</v>
       </c>
@@ -897,7 +897,7 @@
       </c>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="10"/>
       <c r="C27" s="5" t="s">
         <v>30</v>
@@ -906,7 +906,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:4" ht="28" x14ac:dyDescent="0.3">
       <c r="B28" s="11"/>
       <c r="C28" s="5" t="s">
         <v>31</v>
@@ -915,7 +915,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="9" t="s">
         <v>31</v>
       </c>
@@ -926,7 +926,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="10"/>
       <c r="C30" s="5" t="s">
         <v>36</v>
@@ -935,7 +935,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:4" ht="28" x14ac:dyDescent="0.3">
       <c r="B31" s="11"/>
       <c r="C31" s="5" t="s">
         <v>34</v>
@@ -944,7 +944,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="9" t="s">
         <v>34</v>
       </c>
@@ -953,21 +953,21 @@
       </c>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="10"/>
       <c r="C33" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="10"/>
       <c r="C34" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="11"/>
       <c r="C35" s="5" t="s">
         <v>43</v>
@@ -976,7 +976,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="9" t="s">
         <v>12</v>
       </c>
@@ -985,28 +985,28 @@
       </c>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="10"/>
       <c r="C37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="10"/>
       <c r="C38" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="10"/>
       <c r="C39" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="10"/>
       <c r="C40" s="5" t="s">
         <v>31</v>
@@ -1015,7 +1015,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="10"/>
       <c r="C41" s="5" t="s">
         <v>34</v>
@@ -1024,7 +1024,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="11"/>
       <c r="C42" s="5" t="s">
         <v>45</v>
@@ -1033,7 +1033,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="9" t="s">
         <v>45</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="10"/>
       <c r="C44" s="5" t="s">
         <v>47</v>
@@ -1053,7 +1053,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="45" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:4" ht="42" x14ac:dyDescent="0.3">
       <c r="B45" s="10"/>
       <c r="C45" s="5" t="s">
         <v>48</v>
@@ -1062,7 +1062,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:4" ht="28" x14ac:dyDescent="0.3">
       <c r="B46" s="11"/>
       <c r="C46" s="5" t="s">
         <v>49</v>
@@ -1071,7 +1071,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="9" t="s">
         <v>49</v>
       </c>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="11"/>
       <c r="C48" s="5" t="s">
         <v>51</v>
@@ -1089,7 +1089,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="6" t="s">
         <v>61</v>
       </c>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="D49" s="5"/>
     </row>
-    <row r="50" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="7"/>
       <c r="C50" s="5" t="s">
         <v>30</v>
@@ -1107,7 +1107,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="7"/>
       <c r="C51" s="5" t="s">
         <v>34</v>
@@ -1116,7 +1116,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:4" ht="28" x14ac:dyDescent="0.3">
       <c r="B52" s="8"/>
       <c r="C52" s="5" t="s">
         <v>31</v>

--- a/HT-6/Optica BAC-11-Catálogo de atributos y relaciones.xlsx
+++ b/HT-6/Optica BAC-11-Catálogo de atributos y relaciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chech\Documents\GitHub\p3\arquiemp\HT-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960CBFD8-AED3-4DD9-996B-2415D487C364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2B4E57-1944-4E39-8934-AC6C77063B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-11" sheetId="1" r:id="rId1"/>
@@ -682,462 +682,462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
-  <dimension ref="B2:D52"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="44.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="2" t="s">
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="C8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="2:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="C9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="5" t="s">
+      <c r="C17" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
-      <c r="C13" s="5" t="s">
+      <c r="B35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="10"/>
+      <c r="B43" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A45" s="11"/>
+      <c r="B45" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="11"/>
+      <c r="B47" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="10"/>
-      <c r="C15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="2:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
-      <c r="C18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
-      <c r="C20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
-      <c r="C21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="10"/>
-      <c r="C22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="B23" s="11"/>
-      <c r="C23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="B24" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="B25" s="11"/>
-      <c r="C25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="10"/>
-      <c r="C27" s="5" t="s">
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+      <c r="B49" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="B28" s="11"/>
-      <c r="C28" s="5" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="7"/>
+      <c r="B50" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A51" s="8"/>
+      <c r="B51" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="10"/>
-      <c r="C30" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="B31" s="11"/>
-      <c r="C31" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="10"/>
-      <c r="C33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="10"/>
-      <c r="C34" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="11"/>
-      <c r="C35" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="10"/>
-      <c r="C37" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="10"/>
-      <c r="C38" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="10"/>
-      <c r="C39" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="10"/>
-      <c r="C40" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
-      <c r="C41" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="11"/>
-      <c r="C42" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="10"/>
-      <c r="C44" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="B45" s="10"/>
-      <c r="C45" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="B46" s="11"/>
-      <c r="C46" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="11"/>
-      <c r="C48" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="7"/>
-      <c r="C50" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="7"/>
       <c r="C51" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="B52" s="8"/>
-      <c r="C52" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D52" s="5" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
